--- a/dtpu_configurations/only_integer16/50mhz/mxu_10x10/power.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_10x10/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.022962519899010658</v>
+        <v>0.023758821189403534</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.009680687449872494</v>
+        <v>0.01035654079169035</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.007212070282548666</v>
+        <v>0.007462464272975922</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.005244454834610224</v>
+        <v>0.005244450643658638</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>3.1104133086046204E-5</v>
+        <v>4.077703852090053E-5</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.001389218494296074</v>
@@ -199,10 +199,10 @@
         <v>1.258823275566101</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.1274198591709137</v>
+        <v>0.12743400037288666</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4337397813796997</v>
+        <v>1.4354861974716187</v>
       </c>
     </row>
   </sheetData>
